--- a/Data/EC/NIT-8901068438.xlsx
+++ b/Data/EC/NIT-8901068438.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939CC25A-0902-42B5-8809-5CC3DFE9D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9A5467-83A0-413D-83A6-5626C0979995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D585661E-4409-4590-8CA0-1F40B398C377}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1430DC0-EB28-4856-BD40-BE3357729650}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,214 +71,214 @@
     <t>RONNY GUTIERREZ VITOLA</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -377,7 +377,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -390,9 +392,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -592,23 +592,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,10 +636,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +692,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149C821F-FED6-1F41-F85E-61201303499E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C144839C-2EE2-4378-3B30-80A21B248CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF2AF52-47E2-45DB-A377-3308603D07BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A710303-A0FB-48EB-9D37-4EB37112C009}">
   <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1221,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23958</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1244,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1336,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1359,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1428,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1451,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1497,7 +1497,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1520,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1543,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1566,7 +1566,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1589,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1612,7 +1612,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1635,7 +1635,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1658,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1681,7 +1681,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1704,7 +1704,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1727,7 +1727,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1750,7 +1750,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1773,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -2256,7 +2256,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2279,7 +2279,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2302,7 +2302,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2325,7 +2325,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2348,7 +2348,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2371,7 +2371,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2394,7 +2394,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2417,7 +2417,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2440,7 +2440,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2463,7 +2463,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2486,7 +2486,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2509,7 +2509,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2532,7 +2532,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2555,7 +2555,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2578,7 +2578,7 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2601,7 +2601,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2624,7 +2624,7 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2647,7 +2647,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2670,7 +2670,7 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2693,7 +2693,7 @@
         <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2716,7 +2716,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2739,7 +2739,7 @@
         <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2762,7 +2762,7 @@
         <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2785,7 +2785,7 @@
         <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2808,7 +2808,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="24">
-        <v>27578</v>
+        <v>23958</v>
       </c>
       <c r="G85" s="24">
         <v>781242</v>
